--- a/uploads/Canon_GOODNIGHT INSECT KILLER_eco_report.xlsx
+++ b/uploads/Canon_GOODNIGHT INSECT KILLER_eco_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Glayds  Bundotich</t>
+          <t>Jane Gichohi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,120 +505,66 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-12.00</t>
+          <t>-13.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>13.33%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jane Gichohi</t>
+          <t>Mirriam Makau</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-10.00</t>
+          <t>-11.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>8.33%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mirriam Makau</t>
+          <t>KD Totals</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-6.00</t>
+          <t>-34.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Victor Njogu</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-10.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KD Totals</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-48.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.33%</t>
+          <t>12.78%</t>
         </is>
       </c>
     </row>
